--- a/Code/Results/Cases/Case_8_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001559091589415</v>
+        <v>1.000510410956872</v>
       </c>
       <c r="D2">
-        <v>1.024507709559914</v>
+        <v>1.023448888165837</v>
       </c>
       <c r="E2">
-        <v>1.007749291139128</v>
+        <v>1.006857824917409</v>
       </c>
       <c r="F2">
-        <v>1.029014848706644</v>
+        <v>1.028199350059773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044791878894658</v>
+        <v>1.044373961603817</v>
       </c>
       <c r="J2">
-        <v>1.023693270284762</v>
+        <v>1.022675866430616</v>
       </c>
       <c r="K2">
-        <v>1.0356358536133</v>
+        <v>1.034590929796856</v>
       </c>
       <c r="L2">
-        <v>1.019101711493588</v>
+        <v>1.018222439030283</v>
       </c>
       <c r="M2">
-        <v>1.040084234783368</v>
+        <v>1.039279319715456</v>
       </c>
       <c r="N2">
-        <v>1.025147032147826</v>
+        <v>1.022311403501679</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040296373554441</v>
+        <v>1.039659336784218</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036267886088268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035537832191608</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021246697047272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005391502478213</v>
+        <v>1.004004045159852</v>
       </c>
       <c r="D3">
-        <v>1.026995014569488</v>
+        <v>1.025642824539091</v>
       </c>
       <c r="E3">
-        <v>1.010768191753135</v>
+        <v>1.009581117222649</v>
       </c>
       <c r="F3">
-        <v>1.031672081253042</v>
+        <v>1.030623475143341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045389841811335</v>
+        <v>1.044847997582772</v>
       </c>
       <c r="J3">
-        <v>1.025736261035133</v>
+        <v>1.02438614784604</v>
       </c>
       <c r="K3">
-        <v>1.037293758384293</v>
+        <v>1.03595778599794</v>
       </c>
       <c r="L3">
-        <v>1.021265120909153</v>
+        <v>1.020092856261064</v>
       </c>
       <c r="M3">
-        <v>1.041915136314706</v>
+        <v>1.040878961243794</v>
       </c>
       <c r="N3">
-        <v>1.027192924179396</v>
+        <v>1.023270351121736</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041745408312574</v>
+        <v>1.040925346166329</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037437503377631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036501373667255</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021517107656266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007829168403631</v>
+        <v>1.006228359684163</v>
       </c>
       <c r="D4">
-        <v>1.028580577758616</v>
+        <v>1.027042964254619</v>
       </c>
       <c r="E4">
-        <v>1.012694357229688</v>
+        <v>1.011320835643907</v>
       </c>
       <c r="F4">
-        <v>1.033369039470872</v>
+        <v>1.032173303609727</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045760424758911</v>
+        <v>1.045140151486811</v>
       </c>
       <c r="J4">
-        <v>1.027034701604699</v>
+        <v>1.025474074187901</v>
       </c>
       <c r="K4">
-        <v>1.038345876179952</v>
+        <v>1.036825602897888</v>
       </c>
       <c r="L4">
-        <v>1.022641949286612</v>
+        <v>1.021284521609206</v>
       </c>
       <c r="M4">
-        <v>1.04308074344051</v>
+        <v>1.041898333423479</v>
       </c>
       <c r="N4">
-        <v>1.028493208683504</v>
+        <v>1.023880342993617</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042667906023671</v>
+        <v>1.041732109973571</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038182343216649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037115979126425</v>
+      </c>
+      <c r="S4">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.021686414622664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008847482136842</v>
+        <v>1.007157882635532</v>
       </c>
       <c r="D5">
-        <v>1.029245655143215</v>
+        <v>1.027630815652532</v>
       </c>
       <c r="E5">
-        <v>1.013500787626541</v>
+        <v>1.012049609606098</v>
       </c>
       <c r="F5">
-        <v>1.034080183819573</v>
+        <v>1.0328231969172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045914260232983</v>
+        <v>1.045261287597341</v>
       </c>
       <c r="J5">
-        <v>1.027578302875224</v>
+        <v>1.025929850367705</v>
       </c>
       <c r="K5">
-        <v>1.038787390193622</v>
+        <v>1.037190281503402</v>
       </c>
       <c r="L5">
-        <v>1.023218371306999</v>
+        <v>1.021783740651671</v>
       </c>
       <c r="M5">
-        <v>1.043569242289881</v>
+        <v>1.042325893191952</v>
       </c>
       <c r="N5">
-        <v>1.029037581930186</v>
+        <v>1.024135892275829</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043054518849014</v>
+        <v>1.042070494207101</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038501717356496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037381740320019</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021757445557283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009021924439007</v>
+        <v>1.00731696031126</v>
       </c>
       <c r="D6">
-        <v>1.029361979723312</v>
+        <v>1.027733878656325</v>
       </c>
       <c r="E6">
-        <v>1.013639496867321</v>
+        <v>1.01217487435984</v>
       </c>
       <c r="F6">
-        <v>1.034202910730819</v>
+        <v>1.032935383558359</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045942189660575</v>
+        <v>1.045283585858684</v>
       </c>
       <c r="J6">
-        <v>1.027673189309145</v>
+        <v>1.026009533484956</v>
       </c>
       <c r="K6">
-        <v>1.038866166021506</v>
+        <v>1.037255860207048</v>
       </c>
       <c r="L6">
-        <v>1.023318475176632</v>
+        <v>1.021870476226437</v>
       </c>
       <c r="M6">
-        <v>1.043654591138006</v>
+        <v>1.042400753540901</v>
       </c>
       <c r="N6">
-        <v>1.029132603113726</v>
+        <v>1.024180569772665</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043122066498415</v>
+        <v>1.042129741022912</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038566180470404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037437747354365</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021770746905984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007853667765834</v>
+        <v>1.006272127213163</v>
       </c>
       <c r="D7">
-        <v>1.028602863528855</v>
+        <v>1.027078486256135</v>
       </c>
       <c r="E7">
-        <v>1.012715060238432</v>
+        <v>1.011359178414362</v>
       </c>
       <c r="F7">
-        <v>1.033388309808595</v>
+        <v>1.032203941652765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045768752485732</v>
+        <v>1.04515469060026</v>
       </c>
       <c r="J7">
-        <v>1.027052569370821</v>
+        <v>1.02551070834109</v>
       </c>
       <c r="K7">
-        <v>1.038365021270016</v>
+        <v>1.036857828023076</v>
       </c>
       <c r="L7">
-        <v>1.022659459360836</v>
+        <v>1.021319458285441</v>
       </c>
       <c r="M7">
-        <v>1.043096927359442</v>
+        <v>1.041925753178259</v>
       </c>
       <c r="N7">
-        <v>1.028511101823903</v>
+        <v>1.023953423187783</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04268071447192</v>
+        <v>1.041753810833702</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038216034436737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037160932087434</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021696043879941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002876848151054</v>
+        <v>1.001779283039307</v>
       </c>
       <c r="D8">
-        <v>1.025370002731621</v>
+        <v>1.024257958758242</v>
       </c>
       <c r="E8">
-        <v>1.008787784257039</v>
+        <v>1.007856459982918</v>
       </c>
       <c r="F8">
-        <v>1.029929776243954</v>
+        <v>1.029074692291792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045005207897135</v>
+        <v>1.044566909294429</v>
       </c>
       <c r="J8">
-        <v>1.024401927020801</v>
+        <v>1.023335997678196</v>
       </c>
       <c r="K8">
-        <v>1.036216946365276</v>
+        <v>1.035119067976002</v>
       </c>
       <c r="L8">
-        <v>1.019850020767999</v>
+        <v>1.018931051873578</v>
       </c>
       <c r="M8">
-        <v>1.040719035010391</v>
+        <v>1.039874719980908</v>
       </c>
       <c r="N8">
-        <v>1.025856695257714</v>
+        <v>1.022840827577069</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040798775338869</v>
+        <v>1.040130556569893</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036701740341201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035936521470019</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021359264286883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9937522607999472</v>
+        <v>0.9934887990757473</v>
       </c>
       <c r="D9">
-        <v>1.019462515590151</v>
+        <v>1.019066240956373</v>
       </c>
       <c r="E9">
-        <v>1.001633989406754</v>
+        <v>1.001429139270948</v>
       </c>
       <c r="F9">
-        <v>1.023641302308764</v>
+        <v>1.02335686538027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043522422371256</v>
+        <v>1.043386382687057</v>
       </c>
       <c r="J9">
-        <v>1.019527588438795</v>
+        <v>1.019273598539327</v>
       </c>
       <c r="K9">
-        <v>1.032247526230454</v>
+        <v>1.031857374226351</v>
       </c>
       <c r="L9">
-        <v>1.014700611784671</v>
+        <v>1.014499072164224</v>
       </c>
       <c r="M9">
-        <v>1.036362116781647</v>
+        <v>1.036082028274955</v>
       </c>
       <c r="N9">
-        <v>1.020975434555827</v>
+        <v>1.02058236960153</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037350559838666</v>
+        <v>1.037128887556366</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033891891800823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033626808641877</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020700254230924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874840966055457</v>
+        <v>0.9879068083924151</v>
       </c>
       <c r="D10">
-        <v>1.015454131660131</v>
+        <v>1.015626335737943</v>
       </c>
       <c r="E10">
-        <v>0.9967629079198396</v>
+        <v>0.9971576833319541</v>
       </c>
       <c r="F10">
-        <v>1.019443986101919</v>
+        <v>1.019618194727955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042476079977132</v>
+        <v>1.042582378739053</v>
       </c>
       <c r="J10">
-        <v>1.016203242734573</v>
+        <v>1.016608583741873</v>
       </c>
       <c r="K10">
-        <v>1.029549852711543</v>
+        <v>1.029719069517604</v>
       </c>
       <c r="L10">
-        <v>1.011190856073567</v>
+        <v>1.011578447021857</v>
       </c>
       <c r="M10">
-        <v>1.033470829091703</v>
+        <v>1.033642046177359</v>
       </c>
       <c r="N10">
-        <v>1.017646367899397</v>
+        <v>1.019322780693901</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035113934981491</v>
+        <v>1.035249434319083</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032001334029733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032133446357843</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020271069091445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.985197711190032</v>
+        <v>0.9859863924316887</v>
       </c>
       <c r="D11">
-        <v>1.014202811830396</v>
+        <v>1.014656207442075</v>
       </c>
       <c r="E11">
-        <v>0.9950588758725103</v>
+        <v>0.9957772223086421</v>
       </c>
       <c r="F11">
-        <v>1.018571716726907</v>
+        <v>1.018978583358773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042242045372276</v>
+        <v>1.042468191949517</v>
       </c>
       <c r="J11">
-        <v>1.015199516661358</v>
+        <v>1.015954002101444</v>
       </c>
       <c r="K11">
-        <v>1.028861763905863</v>
+        <v>1.029306922663449</v>
       </c>
       <c r="L11">
-        <v>1.010074580037288</v>
+        <v>1.010779215841637</v>
       </c>
       <c r="M11">
-        <v>1.033151695212549</v>
+        <v>1.033551251990624</v>
       </c>
       <c r="N11">
-        <v>1.016641216420029</v>
+        <v>1.019403469925052</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035299190212437</v>
+        <v>1.035615234901907</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031547816942643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031878242389045</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020247109527048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9845138364627298</v>
+        <v>0.9854097244440373</v>
       </c>
       <c r="D12">
-        <v>1.013914419255739</v>
+        <v>1.014446211270147</v>
       </c>
       <c r="E12">
-        <v>0.9945799239221945</v>
+        <v>0.995392098436289</v>
       </c>
       <c r="F12">
-        <v>1.018591927385119</v>
+        <v>1.019064769795887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042237118589909</v>
+        <v>1.042494291143673</v>
       </c>
       <c r="J12">
-        <v>1.014988373131197</v>
+        <v>1.015844669085466</v>
       </c>
       <c r="K12">
-        <v>1.028779809497671</v>
+        <v>1.02930178117212</v>
       </c>
       <c r="L12">
-        <v>1.009811705979823</v>
+        <v>1.010608114245084</v>
       </c>
       <c r="M12">
-        <v>1.033371398035492</v>
+        <v>1.033835612094992</v>
       </c>
       <c r="N12">
-        <v>1.016429773041837</v>
+        <v>1.019536585043822</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035800373498234</v>
+        <v>1.036167436301443</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031489872026485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031874607237004</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020284872260434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.985032855012369</v>
+        <v>0.9858185906987529</v>
       </c>
       <c r="D13">
-        <v>1.014365897443642</v>
+        <v>1.014806085642204</v>
       </c>
       <c r="E13">
-        <v>0.9950230472491639</v>
+        <v>0.9957356973413038</v>
       </c>
       <c r="F13">
-        <v>1.019325101192861</v>
+        <v>1.019724146060436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042421036172978</v>
+        <v>1.042634670328831</v>
       </c>
       <c r="J13">
-        <v>1.015389448599885</v>
+        <v>1.016140634336379</v>
       </c>
       <c r="K13">
-        <v>1.029179821790683</v>
+        <v>1.029611916897879</v>
       </c>
       <c r="L13">
-        <v>1.010201866293612</v>
+        <v>1.010900742989077</v>
       </c>
       <c r="M13">
-        <v>1.03404837384654</v>
+        <v>1.034440174237755</v>
       </c>
       <c r="N13">
-        <v>1.016831418083694</v>
+        <v>1.019659582779228</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036613013860023</v>
+        <v>1.036922739588803</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031770192427045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032091134889813</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020374671791499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9859413475500245</v>
+        <v>0.9865548765805066</v>
       </c>
       <c r="D14">
-        <v>1.015017569666036</v>
+        <v>1.015319429824036</v>
       </c>
       <c r="E14">
-        <v>0.9957512098483632</v>
+        <v>0.9963099982790621</v>
       </c>
       <c r="F14">
-        <v>1.020160401099753</v>
+        <v>1.020446825581411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042635193111397</v>
+        <v>1.042786302238951</v>
       </c>
       <c r="J14">
-        <v>1.015947416844128</v>
+        <v>1.016534356773456</v>
       </c>
       <c r="K14">
-        <v>1.029678331886851</v>
+        <v>1.029974711367495</v>
       </c>
       <c r="L14">
-        <v>1.010770774118965</v>
+        <v>1.011318900461038</v>
       </c>
       <c r="M14">
-        <v>1.034728363873041</v>
+        <v>1.035009655706151</v>
       </c>
       <c r="N14">
-        <v>1.017390178706844</v>
+        <v>1.019743992794546</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037324197280112</v>
+        <v>1.037546533754403</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032124089123107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032349208026299</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02046234267608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9864299749808646</v>
+        <v>0.9869562067428006</v>
       </c>
       <c r="D15">
-        <v>1.015345980570913</v>
+        <v>1.015578664993486</v>
       </c>
       <c r="E15">
-        <v>0.9961348348240793</v>
+        <v>0.9966160870549758</v>
       </c>
       <c r="F15">
-        <v>1.020535773645212</v>
+        <v>1.020765631163397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042732442376124</v>
+        <v>1.042853027356011</v>
       </c>
       <c r="J15">
-        <v>1.016223806285283</v>
+        <v>1.016727432388091</v>
       </c>
       <c r="K15">
-        <v>1.029913829692086</v>
+        <v>1.030142321445118</v>
       </c>
       <c r="L15">
-        <v>1.011057677196373</v>
+        <v>1.011529818151237</v>
       </c>
       <c r="M15">
-        <v>1.035010698984245</v>
+        <v>1.035236469237719</v>
       </c>
       <c r="N15">
-        <v>1.017666960652708</v>
+        <v>1.019771543501471</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037584954158944</v>
+        <v>1.037763400994752</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032296490447151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032474177755305</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020498500930692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9889835274281232</v>
+        <v>0.9890962972614155</v>
       </c>
       <c r="D16">
-        <v>1.016961226819777</v>
+        <v>1.016868634416073</v>
       </c>
       <c r="E16">
-        <v>0.9981051713728269</v>
+        <v>0.9982216299521979</v>
       </c>
       <c r="F16">
-        <v>1.02220522302869</v>
+        <v>1.022168450262345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04315620441541</v>
+        <v>1.043136791124397</v>
       </c>
       <c r="J16">
-        <v>1.017562942537251</v>
+        <v>1.017671110944204</v>
       </c>
       <c r="K16">
-        <v>1.030995049393323</v>
+        <v>1.030904052919679</v>
       </c>
       <c r="L16">
-        <v>1.012471943401197</v>
+        <v>1.012586295423537</v>
       </c>
       <c r="M16">
-        <v>1.036149268947827</v>
+        <v>1.036113121586317</v>
       </c>
       <c r="N16">
-        <v>1.019007998631755</v>
+        <v>1.019893274571398</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038446094302269</v>
+        <v>1.038417522928399</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033064135856104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033016232246858</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020639893892834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9904689096357709</v>
+        <v>0.9903766023162941</v>
       </c>
       <c r="D17">
-        <v>1.017860763406154</v>
+        <v>1.01760655161989</v>
       </c>
       <c r="E17">
-        <v>0.9992387653835962</v>
+        <v>0.999175413600961</v>
       </c>
       <c r="F17">
-        <v>1.023044517485437</v>
+        <v>1.022875335332807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043366818930673</v>
+        <v>1.043279266011833</v>
       </c>
       <c r="J17">
-        <v>1.018298345791688</v>
+        <v>1.01820968352248</v>
       </c>
       <c r="K17">
-        <v>1.031562712038864</v>
+        <v>1.031312759527395</v>
       </c>
       <c r="L17">
-        <v>1.013260154977841</v>
+        <v>1.013197916267349</v>
       </c>
       <c r="M17">
-        <v>1.036660207379277</v>
+        <v>1.036493822689331</v>
       </c>
       <c r="N17">
-        <v>1.019744446243165</v>
+        <v>1.020005945807581</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038720690987938</v>
+        <v>1.038589165095574</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033468095185366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033308051901093</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020705840344753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9911611594694082</v>
+        <v>0.9909968991831061</v>
       </c>
       <c r="D18">
-        <v>1.018203382837433</v>
+        <v>1.017893947597165</v>
       </c>
       <c r="E18">
-        <v>0.9997422920129359</v>
+        <v>0.9996167874754058</v>
       </c>
       <c r="F18">
-        <v>1.023195304317764</v>
+        <v>1.022980298730168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043403887301067</v>
+        <v>1.043294789623044</v>
       </c>
       <c r="J18">
-        <v>1.018562297108069</v>
+        <v>1.018404401282752</v>
       </c>
       <c r="K18">
-        <v>1.031715129637741</v>
+        <v>1.031410794761685</v>
       </c>
       <c r="L18">
-        <v>1.013565475315564</v>
+        <v>1.013442138946764</v>
       </c>
       <c r="M18">
-        <v>1.036625317864058</v>
+        <v>1.03641381146658</v>
       </c>
       <c r="N18">
-        <v>1.020008772400691</v>
+        <v>1.020032172492648</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038454936874137</v>
+        <v>1.038287707609207</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033564180628623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033364550980095</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02069923724594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9911470659192024</v>
+        <v>0.9910121990967529</v>
       </c>
       <c r="D19">
-        <v>1.018057030159671</v>
+        <v>1.017775292891096</v>
       </c>
       <c r="E19">
-        <v>0.9996864809800448</v>
+        <v>0.9995879933685604</v>
       </c>
       <c r="F19">
-        <v>1.022725552899027</v>
+        <v>1.022531731130355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04329394202304</v>
+        <v>1.043199309337535</v>
       </c>
       <c r="J19">
-        <v>1.018412139147466</v>
+        <v>1.018282467255226</v>
       </c>
       <c r="K19">
-        <v>1.031508276420755</v>
+        <v>1.031231159719064</v>
       </c>
       <c r="L19">
-        <v>1.013446055865592</v>
+        <v>1.013349260737294</v>
       </c>
       <c r="M19">
-        <v>1.036100709997044</v>
+        <v>1.035910029449721</v>
       </c>
       <c r="N19">
-        <v>1.019858401198561</v>
+        <v>1.019940441320518</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037713819425912</v>
+        <v>1.037563006765164</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033424347347714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03324458871818</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02062940398893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9891377217341274</v>
+        <v>0.9893119921066087</v>
       </c>
       <c r="D20">
-        <v>1.016526703233256</v>
+        <v>1.016501558744541</v>
       </c>
       <c r="E20">
-        <v>0.9980495918719143</v>
+        <v>0.9982246864039627</v>
       </c>
       <c r="F20">
-        <v>1.020558064642226</v>
+        <v>1.02057079528277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042767851620345</v>
+        <v>1.042787890560142</v>
       </c>
       <c r="J20">
-        <v>1.017093884316867</v>
+        <v>1.017261227856754</v>
       </c>
       <c r="K20">
-        <v>1.030285044792809</v>
+        <v>1.030260324103476</v>
       </c>
       <c r="L20">
-        <v>1.012126823773779</v>
+        <v>1.012298824557752</v>
       </c>
       <c r="M20">
-        <v>1.034248807316366</v>
+        <v>1.034261325576112</v>
       </c>
       <c r="N20">
-        <v>1.018538274294896</v>
+        <v>1.019491861986484</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035719033258297</v>
+        <v>1.035728940193063</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032563408667984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032562496546181</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020379183717345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9843393328920169</v>
+        <v>0.9853621768161736</v>
       </c>
       <c r="D21">
-        <v>1.013425272690974</v>
+        <v>1.014069047440122</v>
       </c>
       <c r="E21">
-        <v>0.9943212462741478</v>
+        <v>0.9952513056735777</v>
       </c>
       <c r="F21">
-        <v>1.017232416513171</v>
+        <v>1.017794474368942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041918869498227</v>
+        <v>1.042234776721326</v>
       </c>
       <c r="J21">
-        <v>1.014506732828108</v>
+        <v>1.015484909066028</v>
       </c>
       <c r="K21">
-        <v>1.028156686166808</v>
+        <v>1.028788691252678</v>
       </c>
       <c r="L21">
-        <v>1.009411009019018</v>
+        <v>1.010323205490467</v>
       </c>
       <c r="M21">
-        <v>1.031894508276059</v>
+        <v>1.032446389129756</v>
       </c>
       <c r="N21">
-        <v>1.015947448754272</v>
+        <v>1.019312587156556</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033814722901823</v>
+        <v>1.034251503560375</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031061811803043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03152555654403</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020097407954955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9812814334061976</v>
+        <v>0.9828314086978182</v>
       </c>
       <c r="D22">
-        <v>1.01146094630087</v>
+        <v>1.012524438960783</v>
       </c>
       <c r="E22">
-        <v>0.991955668122979</v>
+        <v>0.9933552938531581</v>
       </c>
       <c r="F22">
-        <v>1.015161568619178</v>
+        <v>1.016067740189667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041373361001828</v>
+        <v>1.041875596148321</v>
       </c>
       <c r="J22">
-        <v>1.012865769981264</v>
+        <v>1.0143440913972</v>
       </c>
       <c r="K22">
-        <v>1.026808728108003</v>
+        <v>1.027851801406198</v>
       </c>
       <c r="L22">
-        <v>1.007688187122751</v>
+        <v>1.009059543009194</v>
       </c>
       <c r="M22">
-        <v>1.030438538854025</v>
+        <v>1.03132747359595</v>
       </c>
       <c r="N22">
-        <v>1.014304155551965</v>
+        <v>1.019148759428212</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032662408959916</v>
+        <v>1.033365948614307</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030095163913445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030848258684575</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019917424742141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9828976754336729</v>
+        <v>0.9841355460022824</v>
       </c>
       <c r="D23">
-        <v>1.01249297771357</v>
+        <v>1.013309337305754</v>
       </c>
       <c r="E23">
-        <v>0.9932036730951255</v>
+        <v>0.9943239994993026</v>
       </c>
       <c r="F23">
-        <v>1.016253191673811</v>
+        <v>1.016956227836357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041658514909607</v>
+        <v>1.042050202939891</v>
       </c>
       <c r="J23">
-        <v>1.013728660573176</v>
+        <v>1.014910991886127</v>
       </c>
       <c r="K23">
-        <v>1.027513767240536</v>
+        <v>1.028314850482871</v>
       </c>
       <c r="L23">
-        <v>1.00859501511787</v>
+        <v>1.009693303511193</v>
       </c>
       <c r="M23">
-        <v>1.031203882993933</v>
+        <v>1.031893888098079</v>
       </c>
       <c r="N23">
-        <v>1.015168271547492</v>
+        <v>1.019144188576336</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033268133951667</v>
+        <v>1.033814232067925</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030583975274189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031165033567073</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020001601417515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9891535400387967</v>
+        <v>0.9893287883181332</v>
       </c>
       <c r="D24">
-        <v>1.016508593051437</v>
+        <v>1.01648455819177</v>
       </c>
       <c r="E24">
-        <v>0.9980536706531435</v>
+        <v>0.9982297377562157</v>
       </c>
       <c r="F24">
-        <v>1.020501468394448</v>
+        <v>1.020515004384907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042749356974974</v>
+        <v>1.04277026516863</v>
       </c>
       <c r="J24">
-        <v>1.017075604725572</v>
+        <v>1.017243897440595</v>
       </c>
       <c r="K24">
-        <v>1.030251871662913</v>
+        <v>1.030228241398508</v>
       </c>
       <c r="L24">
-        <v>1.012115052446392</v>
+        <v>1.012288012667545</v>
       </c>
       <c r="M24">
-        <v>1.034177873016298</v>
+        <v>1.034191183448025</v>
       </c>
       <c r="N24">
-        <v>1.018519968744485</v>
+        <v>1.019474136554697</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035621867649484</v>
+        <v>1.03563240203561</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0325124262033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032509612183547</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020365936068155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9961709171206915</v>
+        <v>0.9956552174083197</v>
       </c>
       <c r="D25">
-        <v>1.021034391288624</v>
+        <v>1.020427145553485</v>
       </c>
       <c r="E25">
-        <v>1.003526609697884</v>
+        <v>1.003101204002501</v>
       </c>
       <c r="F25">
-        <v>1.025304701324818</v>
+        <v>1.024850654477242</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043931210026178</v>
+        <v>1.04370518694332</v>
       </c>
       <c r="J25">
-        <v>1.020827835916266</v>
+        <v>1.020329690768213</v>
       </c>
       <c r="K25">
-        <v>1.033314720557067</v>
+        <v>1.032716421391622</v>
       </c>
       <c r="L25">
-        <v>1.016070425166745</v>
+        <v>1.01565156777763</v>
       </c>
       <c r="M25">
-        <v>1.037522495641764</v>
+        <v>1.037075066502722</v>
       </c>
       <c r="N25">
-        <v>1.022277528533857</v>
+        <v>1.021107985010765</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038268925349974</v>
+        <v>1.037914813997401</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034675159736635</v>
+        <v>1.034265712612312</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020876016618571</v>
       </c>
     </row>
   </sheetData>
